--- a/hebrewOutputs/hebrewComparison_9.xlsx
+++ b/hebrewOutputs/hebrewComparison_9.xlsx
@@ -130,13 +130,13 @@
     <t>concern</t>
   </si>
   <si>
+    <t>trans</t>
+  </si>
+  <si>
     <t>אהמ.</t>
   </si>
   <si>
     <t xml:space="preserve">אבל אא אבל אא זהו. מה... </t>
-  </si>
-  <si>
-    <t>trans</t>
   </si>
   <si>
     <t>הכל בסדר?</t>
@@ -1076,12 +1076,12 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1117,10 +1117,10 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -1439,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1447,7 +1447,7 @@
         <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
@@ -1557,10 +1557,10 @@
         <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>112</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1920,7 +1920,7 @@
         <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="C123" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>91</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>48</v>
       </c>
       <c r="C131" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
